--- a/biology/Microbiologie/Cryptochilidae/Cryptochilidae.xlsx
+++ b/biology/Microbiologie/Cryptochilidae/Cryptochilidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cryptochilidae sont une famille de Ciliés de la classe des Oligohymenophorea et de l'ordre des Philasterida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Cryptochilum, dérivé du grec κρυπτ / krypt, « caché », et χιλός / kilos, « fourrage, gazon », probablement en référence à la ciliation.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Cryptochilidae ont une taille moyenne (80 à 200 μm) à grande (&gt; 200 μm). Leur forme est généralement comprimée latéralement et effilée antérieurement et postérieurement, avec une projection caudale portant un ou plusieurs cils plus longs. Ils vivent en natation libre. Leur ciliation somatique est holotriche (c'est-à-dire uniforme), dense. Leur région buccale est généralement postérieure à l'équateur avec le polykinétide buccal 2 relativement bien développé. Le macronoyau est globulaire à ellipsoïde. Micronoyau, vacuole contractile et cytoprocte (anus) sont présents. Ils sont bactérivores[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Cryptochilidae ont une taille moyenne (80 à 200 μm) à grande (&gt; 200 μm). Leur forme est généralement comprimée latéralement et effilée antérieurement et postérieurement, avec une projection caudale portant un ou plusieurs cils plus longs. Ils vivent en natation libre. Leur ciliation somatique est holotriche (c'est-à-dire uniforme), dense. Leur région buccale est généralement postérieure à l'équateur avec le polykinétide buccal 2 relativement bien développé. Le macronoyau est globulaire à ellipsoïde. Micronoyau, vacuole contractile et cytoprocte (anus) sont présents. Ils sont bactérivores.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Cryptochilidae sont des ciliés marins[2], comme endocommensaux dans les intestins des oursins, et quelques espèces dans les mollusques xylophages[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Cryptochilidae sont des ciliés marins, comme endocommensaux dans les intestins des oursins, et quelques espèces dans les mollusques xylophages.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de cette famille est Cryptochilidae Berger in Corliss, 1979[2]. Elle est classée dans l'ordre des Philasterida[2] ou des Peniculida[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de cette famille est Cryptochilidae Berger in Corliss, 1979. Elle est classée dans l'ordre des Philasterida ou des Peniculida.
 </t>
         </is>
       </c>
@@ -635,19 +655,21 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (19 décembre 2023)[3] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (19 décembre 2023) :
 Biggaria Aescht, 2001
 Cryptochilium
 Cryptochilum Maupas, 1883 Genre type
 Genre synonyme: Oreoctoma Yankovskij, 1980
 Espèce type : Cryptochilum griseolum (Perty, 1852) Maupas, 1883
 Tanystomium Berger, 1994
-Selon le World Register of Marine Species                               (19 décembre 2023)[2] :
+Selon le World Register of Marine Species                               (19 décembre 2023) :
 Biggaria
 Cryptochilum Maupas, 1883
-Selon Lynn (2010)[1] :
+Selon Lynn (2010) :
 Biggaria Aescht, 2001
 Biggariella Profant in Corliss, 1979 nomen nudum
 Cryptochilum Maupas, 1883
